--- a/static/files/wyniki_testow.xlsx
+++ b/static/files/wyniki_testow.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szymon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DA09BC-0C52-41E5-9E8A-31D907818169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12014A1-551C-4EBC-BB41-C0FC72A0C53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36AA57E8-DDA5-495F-A726-F6E5F962B2B5}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{36AA57E8-DDA5-495F-A726-F6E5F962B2B5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Scenariusze testowe" sheetId="1" r:id="rId1"/>
+    <sheet name="Testy jednostkowe, funkcyjne" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="205">
   <si>
     <t>#1</t>
   </si>
@@ -628,13 +629,25 @@
   </si>
   <si>
     <t>Niezgodnośc</t>
+  </si>
+  <si>
+    <t>Voting Screen</t>
+  </si>
+  <si>
+    <t>Pause menu</t>
+  </si>
+  <si>
+    <t>Pop up window</t>
+  </si>
+  <si>
+    <t>Game manager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,6 +669,30 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -700,13 +737,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1023,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3BE446-878F-4A11-BF09-2FBEC84C9BCB}">
   <dimension ref="A1:G235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2230,4 +2270,209 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CDB23D-CC49-42DA-AAF2-5FE640765A5A}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="G3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="G4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="G5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="G6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>